--- a/venv/verimodeli.xlsx
+++ b/venv/verimodeli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\PycharmProjects\front&amp;backend\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\Desktop\front&amp;backend\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CAAE71-8648-4E3A-94D1-F016878D9854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851F194-A4F9-4AA5-899A-9C4BAAE63B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1770" windowWidth="23130" windowHeight="11670" xr2:uid="{1805364F-C7C8-45E1-84B3-28B471FB5AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1805364F-C7C8-45E1-84B3-28B471FB5AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Alan adı</t>
   </si>
@@ -54,67 +54,13 @@
     <t>NUMBER(38)</t>
   </si>
   <si>
-    <t>BORDRO_ID</t>
-  </si>
-  <si>
-    <t>PERSONEL_ID</t>
-  </si>
-  <si>
-    <t>PER_SICIL.ID</t>
-  </si>
-  <si>
-    <t>DONEM_ID</t>
+    <t>BORDRO_TURU</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
   </si>
   <si>
     <t>YARDIM_TURU_ID</t>
-  </si>
-  <si>
-    <t>PER_YARDIM_TURU.ID</t>
-  </si>
-  <si>
-    <t>BORDRO_TURU</t>
-  </si>
-  <si>
-    <t>VARCHAR2(3)</t>
-  </si>
-  <si>
-    <t>GUN</t>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-  </si>
-  <si>
-    <t>TUTAR</t>
-  </si>
-  <si>
-    <t>NUMBER(18,2)</t>
-  </si>
-  <si>
-    <t>BRUT</t>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>ACIKLAMA</t>
-  </si>
-  <si>
-    <t>VARCHAR2(150)</t>
-  </si>
-  <si>
-    <t>YARDIM_ADI</t>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
-  </si>
-  <si>
-    <t>BIRIM_TUTAR</t>
-  </si>
-  <si>
-    <t>NUMBER(18,3)</t>
   </si>
 </sst>
 </file>
@@ -258,8 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -270,25 +225,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,163 +559,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE04675-0850-4041-B786-65BF304633EA}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
